--- a/table/table5.1.xlsx
+++ b/table/table5.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A65287-6AB5-4057-AABA-5BEF054B9E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E5277-B895-4BBD-9A6B-3E02BEAADAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1370" windowWidth="10550" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8000" yWindow="1990" windowWidth="10550" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Export</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>dlnRGDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,15 +147,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,7 +439,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -456,26 +464,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -563,19 +573,19 @@
         <v xml:space="preserve">Year FE </v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" ref="B8:E9" si="0">"Yes"</f>
         <v>Yes</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -585,64 +595,67 @@
         <v>Firm-product-country FE</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="5" t="str">
         <f>"8409682"</f>
         <v>8409682</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="5" t="str">
         <f>"1792020"</f>
         <v>1792020</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="5" t="str">
         <f>"1781946"</f>
         <v>1781946</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" s="5" t="str">
         <f>"1684795"</f>
         <v>1684795</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="str">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="str">
         <f>"Whole"</f>
         <v>Whole</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -730,19 +743,19 @@
         <v xml:space="preserve">Year FE </v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" ref="B17:E18" si="1">"Yes"</f>
         <v>Yes</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
@@ -752,39 +765,39 @@
         <v>Firm-product-country FE</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>"Yes"</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="5" t="str">
         <f>"11173463"</f>
         <v>11173463</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="5" t="str">
         <f>"1793974"</f>
         <v>1793974</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="5" t="str">
         <f>"1611407"</f>
         <v>1611407</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="5" t="str">
         <f>"1251140"</f>
         <v>1251140</v>
       </c>

--- a/table/table5.1.xlsx
+++ b/table/table5.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E5277-B895-4BBD-9A6B-3E02BEAADAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D595EA-E709-4A15-8038-0FEE528225B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="1990" windowWidth="10550" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="1170" windowWidth="17090" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Top 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Top 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,10 @@
   </si>
   <si>
     <t>Panel B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,18 +119,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -147,14 +149,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,76 +440,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="str">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="str">
         <f>"(1)"</f>
         <v>(1)</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="8" t="str">
         <f>"(2)"</f>
         <v>(2)</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="8" t="str">
         <f>"(3)"</f>
         <v>(3)</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="8" t="str">
         <f>"(4)"</f>
         <v>(4)</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>"0.181***"</f>
-        <v>0.181***</v>
+        <f>"0.179***"</f>
+        <v>0.179***</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>"0.389***"</f>
-        <v>0.389***</v>
+        <f>"0.357***"</f>
+        <v>0.357***</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>"0.386***"</f>
-        <v>0.386***</v>
+        <f>"0.354***"</f>
+        <v>0.354***</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>"0.374***"</f>
-        <v>0.374***</v>
+        <f>"0.344***"</f>
+        <v>0.344***</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,55 +518,55 @@
         <v>(0.003)</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>"(0.014)"</f>
-        <v>(0.014)</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>"(0.014)"</f>
-        <v>(0.014)</v>
-      </c>
-      <c r="E5" s="1" t="str">
         <f>"(0.015)"</f>
         <v>(0.015)</v>
       </c>
+      <c r="D5" s="1" t="str">
+        <f>"(0.015)"</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>"(0.016)"</f>
+        <v>(0.016)</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>"-0.107***"</f>
-        <v>-0.107***</v>
+        <f>"-0.133***"</f>
+        <v>-0.133***</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>"0.372***"</f>
-        <v>0.372***</v>
+        <f>"0.263***"</f>
+        <v>0.263***</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>"0.386***"</f>
-        <v>0.386***</v>
+        <f>"0.282***"</f>
+        <v>0.282***</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>"0.440***"</f>
-        <v>0.440***</v>
+        <f>"0.333***"</f>
+        <v>0.333***</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
-        <f>"(0.024)"</f>
-        <v>(0.024)</v>
+        <f>"(0.026)"</f>
+        <v>(0.026)</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>"(0.084)"</f>
-        <v>(0.084)</v>
+        <f>"(0.090)"</f>
+        <v>(0.090)</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>"(0.084)"</f>
-        <v>(0.084)</v>
+        <f>"(0.091)"</f>
+        <v>(0.091)</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>"(0.089)"</f>
-        <v>(0.089)</v>
+        <f>"(0.097)"</f>
+        <v>(0.097)</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,72 +614,72 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="str">
         <f>"8409682"</f>
         <v>8409682</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="3" t="str">
         <f>"1792020"</f>
         <v>1792020</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f>"1781946"</f>
-        <v>1781946</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f>"1684795"</f>
-        <v>1684795</v>
+      <c r="D10" s="3" t="str">
+        <f>"1781948"</f>
+        <v>1781948</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>"1684798"</f>
+        <v>1684798</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="str">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="str">
         <f>"Whole"</f>
         <v>Whole</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>"0.047***"</f>
-        <v>0.047***</v>
+        <f>"0.050***"</f>
+        <v>0.050***</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>"0.033***"</f>
-        <v>0.033***</v>
+        <f>"0.031***"</f>
+        <v>0.031***</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>"0.040***"</f>
-        <v>0.040***</v>
+        <f>"0.039***"</f>
+        <v>0.039***</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>"0.067***"</f>
-        <v>0.067***</v>
+        <f>"0.065***"</f>
+        <v>0.065***</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,25 +696,25 @@
         <v>(0.006)</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>"(0.008)"</f>
-        <v>(0.008)</v>
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>"-0.094***"</f>
-        <v>-0.094***</v>
+        <f>"-0.102***"</f>
+        <v>-0.102***</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>"-0.084**"</f>
-        <v>-0.084**</v>
+        <f>"-0.083**"</f>
+        <v>-0.083**</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>"-0.127***"</f>
-        <v>-0.127***</v>
+        <f>"-0.118***"</f>
+        <v>-0.118***</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>"-0.082"</f>
@@ -721,20 +723,20 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
-        <f>"(0.009)"</f>
-        <v>(0.009)</v>
+        <f>"(0.010)"</f>
+        <v>(0.010)</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>"(0.041)"</f>
-        <v>(0.041)</v>
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>"(0.053)"</f>
-        <v>(0.053)</v>
+        <f>"(0.056)"</f>
+        <v>(0.056)</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,24 +784,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="str">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="str">
         <f>"11173463"</f>
         <v>11173463</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="3" t="str">
         <f>"1793974"</f>
         <v>1793974</v>
       </c>
-      <c r="D19" s="5" t="str">
-        <f>"1611407"</f>
-        <v>1611407</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f>"1251140"</f>
-        <v>1251140</v>
+      <c r="D19" s="3" t="str">
+        <f>"1611410"</f>
+        <v>1611410</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f>"1251147"</f>
+        <v>1251147</v>
       </c>
     </row>
   </sheetData>
